--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value830.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value830.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.034419333537873</v>
+        <v>1.3639155626297</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>3.027185440063477</v>
       </c>
       <c r="C1">
-        <v>3.034280145628489</v>
+        <v>3.097575187683105</v>
       </c>
       <c r="D1">
-        <v>1.731503636888425</v>
+        <v>1.096873044967651</v>
       </c>
       <c r="E1">
-        <v>1.337286294909349</v>
+        <v>0.8176232576370239</v>
       </c>
     </row>
   </sheetData>
